--- a/Board Layout/Ordering List.xlsx
+++ b/Board Layout/Ordering List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dana\Desktop\EEE Folder\Embedded Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dana\Documents\GitHub\IR-Remote\Board Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Part</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>3.3 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>IC 8 Pin DIP Socket</t>
+  </si>
+  <si>
+    <t>ATtiny85</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +467,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -469,11 +478,30 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
